--- a/data/StatePopulation.xlsx
+++ b/data/StatePopulation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Michael_Docs\Git Repositories\covid-tracking-data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58F23CDC-8764-4DC3-AE73-7E1C4660EECC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927A3704-4E19-412D-9E4A-A1AE306FCC63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D614651-C48D-4DE2-B739-65BD6DEE6AF3}"/>
   </bookViews>
@@ -757,7 +757,7 @@
   <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
